--- a/skills_wages.xlsx
+++ b/skills_wages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Documents\GitHub\football_manager_2024_squad_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11BBB69-396A-4185-949F-8896FAB50E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5572A87-D7FA-4F21-A92B-72057F7C6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Bramkarz (Ob)</t>
   </si>
@@ -192,6 +192,48 @@
   </si>
   <si>
     <t>Pozycja</t>
+  </si>
+  <si>
+    <t>Libero (W)</t>
+  </si>
+  <si>
+    <t>Libero (Ob)</t>
+  </si>
+  <si>
+    <t>TŚO (Ob)</t>
+  </si>
+  <si>
+    <t>TŚO (St)</t>
+  </si>
+  <si>
+    <t>TŚO (Zb)</t>
+  </si>
+  <si>
+    <t>Środkowy Obrońca (St)</t>
+  </si>
+  <si>
+    <t>Środkowy Obrońca (Zb)</t>
+  </si>
+  <si>
+    <t>Środkowy Obrońca (Ob)</t>
+  </si>
+  <si>
+    <t>OGP (St)</t>
+  </si>
+  <si>
+    <t>OGP (Zb)</t>
+  </si>
+  <si>
+    <t>OGP (Ob)</t>
+  </si>
+  <si>
+    <t>BŚO (Ob)</t>
+  </si>
+  <si>
+    <t>BŚO (W)</t>
+  </si>
+  <si>
+    <t>BŚO (At)</t>
   </si>
 </sst>
 </file>
@@ -564,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AF988-F02D-45A6-88B0-1FE081CE3F9E}">
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU14" sqref="AU14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -1100,6 +1142,184 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0.5</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>0.5</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0.5</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>0.5</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/skills_wages.xlsx
+++ b/skills_wages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Documents\GitHub\football_manager_2024_squad_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5572A87-D7FA-4F21-A92B-72057F7C6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC420347-D4F0-4DC4-B0E2-2677EA17D0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Bramkarz (Ob)</t>
   </si>
@@ -234,6 +234,45 @@
   </si>
   <si>
     <t>BŚO (At)</t>
+  </si>
+  <si>
+    <t>FB(D)</t>
+  </si>
+  <si>
+    <t>FB(S)</t>
+  </si>
+  <si>
+    <t>FB(A)</t>
+  </si>
+  <si>
+    <t>WB(D)</t>
+  </si>
+  <si>
+    <t>WB(S)</t>
+  </si>
+  <si>
+    <t>WB(A)</t>
+  </si>
+  <si>
+    <t>NNFB(D)</t>
+  </si>
+  <si>
+    <t>CWB(S)</t>
+  </si>
+  <si>
+    <t>CWB(A)</t>
+  </si>
+  <si>
+    <t>IWB(D)</t>
+  </si>
+  <si>
+    <t>IWB(S)</t>
+  </si>
+  <si>
+    <t>IWB(A)</t>
+  </si>
+  <si>
+    <t>IFB(D)</t>
   </si>
 </sst>
 </file>
@@ -270,8 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -606,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AF988-F02D-45A6-88B0-1FE081CE3F9E}">
-  <dimension ref="A1:AV20"/>
+  <dimension ref="A1:AV33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,60 +1304,1334 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0.5</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>0.5</v>
+      </c>
+      <c r="AH11">
+        <v>0.5</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="X12">
+        <v>0.5</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0.5</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0.5</v>
+      </c>
+      <c r="X13">
+        <v>0.5</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>0.5</v>
+      </c>
+      <c r="AH14">
+        <v>0.5</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15">
+        <v>0.5</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0.5</v>
+      </c>
+      <c r="AL15">
+        <v>0.5</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+      <c r="X16">
+        <v>0.5</v>
+      </c>
+      <c r="Y16">
+        <v>0.5</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>0.5</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>0.5</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>0.5</v>
+      </c>
+      <c r="AG17">
+        <v>0.5</v>
+      </c>
+      <c r="AH17">
+        <v>0.5</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>0.5</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="Y18">
+        <v>0.5</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0.5</v>
+      </c>
+      <c r="AL18">
+        <v>0.5</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>0.5</v>
+      </c>
+      <c r="AV18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
+        <v>0.5</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>0.5</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>0.5</v>
+      </c>
+      <c r="AT19">
+        <v>0.5</v>
+      </c>
+      <c r="AV19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0.5</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0.5</v>
+      </c>
+      <c r="AT21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0.5</v>
+      </c>
+      <c r="AL22">
+        <v>0.5</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>0.5</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0.5</v>
+      </c>
+      <c r="AK23">
+        <v>0.5</v>
+      </c>
+      <c r="AL23">
+        <v>0.5</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>0.5</v>
+      </c>
+      <c r="AV23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0.5</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
+      <c r="AK24">
+        <v>0.5</v>
+      </c>
+      <c r="AL24">
+        <v>0.5</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.5</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0.5</v>
+      </c>
+      <c r="AK25">
+        <v>0.5</v>
+      </c>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AM25">
+        <v>0.5</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.5</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>0.5</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>0.5</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="P27">
+        <v>0.5</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>0.5</v>
+      </c>
+      <c r="AO27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0.5</v>
+      </c>
+      <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>0.5</v>
+      </c>
+      <c r="AK28">
+        <v>0.5</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>0.5</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AV28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29">
+        <v>0.5</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>0.5</v>
+      </c>
+      <c r="AK29">
+        <v>0.5</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>0.5</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AV29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0.5</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0.5</v>
+      </c>
+      <c r="Z30">
+        <v>0.5</v>
+      </c>
+      <c r="AL30">
+        <v>0.5</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AT30">
+        <v>0.5</v>
+      </c>
+      <c r="AV30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0.5</v>
+      </c>
+      <c r="W31">
+        <v>0.5</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>0.5</v>
+      </c>
+      <c r="Z31">
+        <v>0.5</v>
+      </c>
+      <c r="AL31">
+        <v>0.5</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AT31">
+        <v>0.5</v>
+      </c>
+      <c r="AV31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32">
+        <v>0.5</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AJ32">
+        <v>0.5</v>
+      </c>
+      <c r="AK32">
+        <v>0.5</v>
+      </c>
+      <c r="AL32">
+        <v>0.5</v>
+      </c>
+      <c r="AM32">
+        <v>0.5</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>0.5</v>
+      </c>
+      <c r="AV32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0.5</v>
+      </c>
+      <c r="U33">
+        <v>0.5</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33">
+        <v>0.5</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>0.5</v>
+      </c>
+      <c r="AK33">
+        <v>0.5</v>
+      </c>
+      <c r="AL33">
+        <v>0.5</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>0.5</v>
+      </c>
+      <c r="AV33">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/skills_wages.xlsx
+++ b/skills_wages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Documents\GitHub\football_manager_2024_squad_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC420347-D4F0-4DC4-B0E2-2677EA17D0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EB24A-8231-4265-BD90-4D13E2FA51FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Bramkarz (Ob)</t>
   </si>
@@ -273,6 +273,69 @@
   </si>
   <si>
     <t>IFB(D)</t>
+  </si>
+  <si>
+    <t>POP(O)</t>
+  </si>
+  <si>
+    <t>POP(W)</t>
+  </si>
+  <si>
+    <t>DP(W)</t>
+  </si>
+  <si>
+    <t>ŁD(O)</t>
+  </si>
+  <si>
+    <t>RD(O)</t>
+  </si>
+  <si>
+    <t>DP(O)</t>
+  </si>
+  <si>
+    <t>CR(O)</t>
+  </si>
+  <si>
+    <t>CR(W)</t>
+  </si>
+  <si>
+    <t>SV(W)</t>
+  </si>
+  <si>
+    <t>SV(A)</t>
+  </si>
+  <si>
+    <t>SR(W)</t>
+  </si>
+  <si>
+    <t>REG(W)</t>
+  </si>
+  <si>
+    <t>ŚP(W)</t>
+  </si>
+  <si>
+    <t>ŚP(A)</t>
+  </si>
+  <si>
+    <t>ŚP(O)</t>
+  </si>
+  <si>
+    <t>Carrilero(W)</t>
+  </si>
+  <si>
+    <t>PD(W)</t>
+  </si>
+  <si>
+    <t>M(W)</t>
+  </si>
+  <si>
+    <t>M(A)</t>
+  </si>
+  <si>
+    <t>WR(W)</t>
+  </si>
+  <si>
+    <t>WR(A)</t>
   </si>
 </sst>
 </file>
@@ -309,9 +372,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -646,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AF988-F02D-45A6-88B0-1FE081CE3F9E}">
-  <dimension ref="A1:AV33"/>
+  <dimension ref="A1:AV54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +1011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1300,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1300,7 +1362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1338,13 +1400,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
@@ -1373,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1408,7 +1467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1452,7 +1511,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1493,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1534,7 +1593,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1590,7 +1649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1643,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1696,7 +1755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1758,7 +1817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1829,78 +1888,78 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>0.5</v>
+      </c>
+      <c r="AM20">
+        <v>0.5</v>
+      </c>
+      <c r="AN20">
+        <v>0.5</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -1941,7 +2000,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1988,7 +2047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2044,7 +2103,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2106,7 +2165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2168,7 +2227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2233,7 +2292,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2268,7 +2327,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2330,7 +2389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2392,7 +2451,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2445,7 +2504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2501,7 +2560,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2572,7 +2631,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2632,6 +2691,417 @@
       </c>
       <c r="AV33">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>0.5</v>
+      </c>
+      <c r="AK34">
+        <v>0.5</v>
+      </c>
+      <c r="AM34">
+        <v>0.5</v>
+      </c>
+      <c r="AN34">
+        <v>0.5</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
+        <v>0.5</v>
+      </c>
+      <c r="AK35">
+        <v>0.5</v>
+      </c>
+      <c r="AN35">
+        <v>0.5</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+      <c r="AV35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>0.5</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0.5</v>
+      </c>
+      <c r="U37">
+        <v>0.5</v>
+      </c>
+      <c r="V37">
+        <v>0.5</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>0.5</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AT37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0.5</v>
+      </c>
+      <c r="U38">
+        <v>0.5</v>
+      </c>
+      <c r="V38">
+        <v>0.5</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>0.5</v>
+      </c>
+      <c r="AG38">
+        <v>0.5</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AT38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0.5</v>
+      </c>
+      <c r="V39">
+        <v>0.5</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>0.5</v>
+      </c>
+      <c r="AG39">
+        <v>0.5</v>
+      </c>
+      <c r="AH39">
+        <v>0.5</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>0.5</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AT39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0.5</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>0.5</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>0.5</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>0.5</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0.5</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>0.5</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/skills_wages.xlsx
+++ b/skills_wages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Documents\GitHub\football_manager_2024_squad_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EB24A-8231-4265-BD90-4D13E2FA51FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845B0A7-B976-4F7B-8AD5-28BC611F697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -372,8 +372,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -711,7 +712,7 @@
   <dimension ref="A1:AV54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,69 +3040,657 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="U45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AO50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U51" s="1">
+        <v>1</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="S52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV53" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="U54" s="1">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/skills_wages.xlsx
+++ b/skills_wages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Documents\GitHub\football_manager_2024_squad_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845B0A7-B976-4F7B-8AD5-28BC611F697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D98A5E2-EFB0-444A-95F5-83FCC5C8F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Bramkarz (Ob)</t>
   </si>
@@ -336,6 +336,108 @@
   </si>
   <si>
     <t>WR(A)</t>
+  </si>
+  <si>
+    <t>OP(W)</t>
+  </si>
+  <si>
+    <t>OP(A)</t>
+  </si>
+  <si>
+    <t>FN(A)</t>
+  </si>
+  <si>
+    <t>K10(A)</t>
+  </si>
+  <si>
+    <t>ENG(W)</t>
+  </si>
+  <si>
+    <t>SN(W)</t>
+  </si>
+  <si>
+    <t>SN(A)</t>
+  </si>
+  <si>
+    <t>S(W)</t>
+  </si>
+  <si>
+    <t>OS(W)</t>
+  </si>
+  <si>
+    <t>OS(A)</t>
+  </si>
+  <si>
+    <t>BR(W)</t>
+  </si>
+  <si>
+    <t>BR(A)</t>
+  </si>
+  <si>
+    <t>S(A)</t>
+  </si>
+  <si>
+    <t>DS(O)</t>
+  </si>
+  <si>
+    <t>DS(W)</t>
+  </si>
+  <si>
+    <t>BP(O)</t>
+  </si>
+  <si>
+    <t>BP(W)</t>
+  </si>
+  <si>
+    <t>BP(A)</t>
+  </si>
+  <si>
+    <t>RMD(A)</t>
+  </si>
+  <si>
+    <t>BO(W)</t>
+  </si>
+  <si>
+    <t>BO(A)</t>
+  </si>
+  <si>
+    <t>NN(O)</t>
+  </si>
+  <si>
+    <t>NN(W)</t>
+  </si>
+  <si>
+    <t>NN(A)</t>
+  </si>
+  <si>
+    <t>CN(W)</t>
+  </si>
+  <si>
+    <t>CN(A)</t>
+  </si>
+  <si>
+    <t>O(W)</t>
+  </si>
+  <si>
+    <t>O(A)</t>
+  </si>
+  <si>
+    <t>WN(A)</t>
+  </si>
+  <si>
+    <t>LPK(A)</t>
+  </si>
+  <si>
+    <t>F9(W)</t>
+  </si>
+  <si>
+    <t>KN(W)</t>
+  </si>
+  <si>
+    <t>KN(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -352,12 +454,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,8 +480,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -709,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AF988-F02D-45A6-88B0-1FE081CE3F9E}">
-  <dimension ref="A1:AV54"/>
+  <dimension ref="A1:AW87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB71" sqref="BB71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2803,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2741,7 +2850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2788,7 +2897,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2820,7 +2929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -2864,7 +2973,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +3020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2964,7 +3073,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3002,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3040,657 +3149,2313 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>1</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U42" s="1">
-        <v>1</v>
-      </c>
-      <c r="V42" s="1">
-        <v>1</v>
-      </c>
-      <c r="X42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AT42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0.5</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0.5</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0.5</v>
+      </c>
+      <c r="Y42">
+        <v>0.5</v>
+      </c>
+      <c r="Z42">
+        <v>0.5</v>
+      </c>
+      <c r="AC42">
+        <v>0.5</v>
+      </c>
+      <c r="AG42">
+        <v>0.5</v>
+      </c>
+      <c r="AJ42">
+        <v>0.5</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>0.5</v>
+      </c>
+      <c r="AT42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R43" s="1">
-        <v>1</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1</v>
-      </c>
-      <c r="X43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0.5</v>
+      </c>
+      <c r="Q43">
+        <v>0.5</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0.5</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>0.5</v>
+      </c>
+      <c r="Z43">
+        <v>0.5</v>
+      </c>
+      <c r="AC43">
+        <v>0.5</v>
+      </c>
+      <c r="AG43">
+        <v>0.5</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AT43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S44" s="1">
-        <v>1</v>
-      </c>
-      <c r="U44" s="1">
-        <v>1</v>
-      </c>
-      <c r="V44" s="1">
-        <v>1</v>
-      </c>
-      <c r="W44" s="1">
-        <v>1</v>
-      </c>
-      <c r="X44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AT44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV44" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0.5</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>0.5</v>
+      </c>
+      <c r="AJ44">
+        <v>0.5</v>
+      </c>
+      <c r="AK44">
+        <v>0.5</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>0.5</v>
+      </c>
+      <c r="AT44">
+        <v>1</v>
+      </c>
+      <c r="AV44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="S45" s="1">
-        <v>1</v>
-      </c>
-      <c r="U45" s="1">
-        <v>1</v>
-      </c>
-      <c r="W45" s="1">
-        <v>1</v>
-      </c>
-      <c r="X45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0.5</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>0.5</v>
+      </c>
+      <c r="AJ45">
+        <v>0.5</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="P46" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R46" s="1">
-        <v>1</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="V46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL46" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AM46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO46" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT46" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B46">
+        <v>0.5</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0.5</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0.5</v>
+      </c>
+      <c r="U46">
+        <v>0.5</v>
+      </c>
+      <c r="V46">
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>0.5</v>
+      </c>
+      <c r="Y46">
+        <v>0.5</v>
+      </c>
+      <c r="AL46">
+        <v>0.5</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R47" s="1">
-        <v>1</v>
-      </c>
-      <c r="S47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U47" s="1">
-        <v>1</v>
-      </c>
-      <c r="V47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT47" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+      <c r="P47">
+        <v>0.5</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>0.5</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0.5</v>
+      </c>
+      <c r="W47">
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>0.5</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>0.5</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AT47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-      <c r="R48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U48" s="1">
-        <v>1</v>
-      </c>
-      <c r="V48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO48" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AT48" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>0.5</v>
+      </c>
+      <c r="S48">
+        <v>0.5</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>0.5</v>
+      </c>
+      <c r="W48">
+        <v>0.5</v>
+      </c>
+      <c r="X48">
+        <v>0.5</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0.5</v>
+      </c>
+      <c r="AJ48">
+        <v>0.5</v>
+      </c>
+      <c r="AL48">
+        <v>0.5</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AT48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="R49" s="1">
-        <v>1</v>
-      </c>
-      <c r="S49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U49" s="1">
-        <v>1</v>
-      </c>
-      <c r="V49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="W49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL49" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AM49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+      <c r="P49">
+        <v>0.5</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0.5</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>0.5</v>
+      </c>
+      <c r="W49">
+        <v>0.5</v>
+      </c>
+      <c r="X49">
+        <v>0.5</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>0.5</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="1">
-        <v>1</v>
-      </c>
-      <c r="R50" s="1">
-        <v>1</v>
-      </c>
-      <c r="S50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U50" s="1">
-        <v>1</v>
-      </c>
-      <c r="V50" s="1">
-        <v>1</v>
-      </c>
-      <c r="X50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AG50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AM50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AO50" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AT50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0.5</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>0.5</v>
+      </c>
+      <c r="Y50">
+        <v>0.5</v>
+      </c>
+      <c r="Z50">
+        <v>0.5</v>
+      </c>
+      <c r="AC50">
+        <v>0.5</v>
+      </c>
+      <c r="AG50">
+        <v>0.5</v>
+      </c>
+      <c r="AJ50">
+        <v>0.5</v>
+      </c>
+      <c r="AK50">
+        <v>0.5</v>
+      </c>
+      <c r="AL50">
+        <v>0.5</v>
+      </c>
+      <c r="AM50">
+        <v>0.5</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AQ50">
+        <v>0.5</v>
+      </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U51" s="1">
-        <v>1</v>
-      </c>
-      <c r="V51" s="1">
-        <v>1</v>
-      </c>
-      <c r="W51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL51" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT51" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>0.5</v>
+      </c>
+      <c r="S51">
+        <v>0.5</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>0.5</v>
+      </c>
+      <c r="X51">
+        <v>0.5</v>
+      </c>
+      <c r="Y51">
+        <v>0.5</v>
+      </c>
+      <c r="AC51">
+        <v>0.5</v>
+      </c>
+      <c r="AJ51">
+        <v>0.5</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
-      <c r="S52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U52" s="1">
-        <v>1</v>
-      </c>
-      <c r="V52" s="1">
-        <v>1</v>
-      </c>
-      <c r="W52" s="1">
-        <v>1</v>
-      </c>
-      <c r="X52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AC52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AJ52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL52" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ52" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AT52" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.5</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>0.5</v>
+      </c>
+      <c r="Y52">
+        <v>0.5</v>
+      </c>
+      <c r="AC52">
+        <v>0.5</v>
+      </c>
+      <c r="AJ52">
+        <v>0.5</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>0.5</v>
+      </c>
+      <c r="AT52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
-      <c r="S53" s="1">
-        <v>1</v>
-      </c>
-      <c r="U53" s="1">
-        <v>1</v>
-      </c>
-      <c r="W53" s="1">
-        <v>1</v>
-      </c>
-      <c r="X53" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV53" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0.5</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>0.5</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AV53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
-      <c r="S54" s="1">
-        <v>1</v>
-      </c>
-      <c r="U54" s="1">
-        <v>1</v>
-      </c>
-      <c r="W54" s="1">
-        <v>1</v>
-      </c>
-      <c r="X54" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y54" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AL54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV54" s="1">
-        <v>0.5</v>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0.5</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>0.5</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AV54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U55" s="2">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV55" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U56" s="2">
+        <v>1</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV56" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV57" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="U58" s="2">
+        <v>1</v>
+      </c>
+      <c r="W58" s="2">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV58" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1</v>
+      </c>
+      <c r="U59" s="1">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1">
+        <v>1</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AV59" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U61" s="2">
+        <v>1</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S62" s="2">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>1</v>
+      </c>
+      <c r="W62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV62" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2">
+        <v>1</v>
+      </c>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="2"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="2"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
+      <c r="X66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V67" s="2">
+        <v>1</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U68" s="2">
+        <v>1</v>
+      </c>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
+      <c r="X68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AM68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT68" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R69" s="2">
+        <v>1</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U69" s="2">
+        <v>1</v>
+      </c>
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AM69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U70" s="2">
+        <v>1</v>
+      </c>
+      <c r="V70" s="2">
+        <v>1</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AO70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+      <c r="S73" s="2">
+        <v>1</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT73" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT74" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
+      <c r="AM75" s="2"/>
+      <c r="AN75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AP75" s="2"/>
+      <c r="AQ75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AR75" s="2"/>
+      <c r="AS75" s="2"/>
+      <c r="AT75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AU75" s="2"/>
+      <c r="AV75" s="2"/>
+      <c r="AW75" s="2"/>
+    </row>
+    <row r="76" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V76" s="2">
+        <v>1</v>
+      </c>
+      <c r="X76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV76" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V77" s="2">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV77" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V78" s="2">
+        <v>1</v>
+      </c>
+      <c r="X78" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AT78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV78" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="S79" s="2">
+        <v>1</v>
+      </c>
+      <c r="U79" s="2">
+        <v>1</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ79" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="S80" s="2">
+        <v>1</v>
+      </c>
+      <c r="U80" s="2">
+        <v>1</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ80" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ81" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+      <c r="S82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+      <c r="S83" s="2">
+        <v>1</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV83" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S84" s="2">
+        <v>1</v>
+      </c>
+      <c r="X84" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="S85" s="2">
+        <v>1</v>
+      </c>
+      <c r="U85" s="2">
+        <v>1</v>
+      </c>
+      <c r="W85" s="2">
+        <v>1</v>
+      </c>
+      <c r="X85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="S86" s="2">
+        <v>1</v>
+      </c>
+      <c r="U86" s="2">
+        <v>1</v>
+      </c>
+      <c r="V86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W86" s="2">
+        <v>1</v>
+      </c>
+      <c r="X86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AT86" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="S87" s="2">
+        <v>1</v>
+      </c>
+      <c r="U87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="W87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AG87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AK87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AQ87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV87" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/skills_wages.xlsx
+++ b/skills_wages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Documents\GitHub\football_manager_2024_squad_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D98A5E2-EFB0-444A-95F5-83FCC5C8F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A49CF2-00D8-402A-A5B1-3B7C80272C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
   </bookViews>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AF988-F02D-45A6-88B0-1FE081CE3F9E}">
-  <dimension ref="A1:AW87"/>
+  <dimension ref="A1:AV87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB71" sqref="BB71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,282 +3802,282 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U55" s="2">
-        <v>1</v>
-      </c>
-      <c r="W55" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X55" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV55" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0.5</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>0.5</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AV55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U56" s="2">
-        <v>1</v>
-      </c>
-      <c r="W56" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X56" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ56" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV56" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>0.5</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>0.5</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>0.5</v>
+      </c>
+      <c r="AV56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S57" s="2">
-        <v>1</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT57" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV57" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0.5</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>0.5</v>
+      </c>
+      <c r="V57">
+        <v>0.5</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>0.5</v>
+      </c>
+      <c r="AK57">
+        <v>0.5</v>
+      </c>
+      <c r="AL57">
+        <v>0.5</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AT57">
+        <v>0.5</v>
+      </c>
+      <c r="AV57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="S58" s="2">
-        <v>1</v>
-      </c>
-      <c r="U58" s="2">
-        <v>1</v>
-      </c>
-      <c r="W58" s="2">
-        <v>1</v>
-      </c>
-      <c r="X58" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ58" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV58" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>0.5</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>0.5</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>0.5</v>
+      </c>
+      <c r="AV58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S59" s="1">
-        <v>1</v>
-      </c>
-      <c r="U59" s="1">
-        <v>1</v>
-      </c>
-      <c r="W59" s="1">
-        <v>1</v>
-      </c>
-      <c r="X59" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL59" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO59" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AV59" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S59" s="2">
+        <v>1</v>
+      </c>
+      <c r="U59" s="2">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AV59" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>108</v>
       </c>
-      <c r="E60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U60" s="2">
-        <v>1</v>
-      </c>
-      <c r="V60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="W60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT60" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV60" s="2">
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0.5</v>
+      </c>
+      <c r="S60">
+        <v>0.5</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0.5</v>
+      </c>
+      <c r="W60">
+        <v>0.5</v>
+      </c>
+      <c r="Y60">
+        <v>0.5</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AC60">
+        <v>0.5</v>
+      </c>
+      <c r="AJ60">
+        <v>0.5</v>
+      </c>
+      <c r="AK60">
+        <v>0.5</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AT60">
+        <v>0.5</v>
+      </c>
+      <c r="AV60">
         <v>1</v>
       </c>
     </row>
@@ -4134,78 +4134,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S62" s="2">
-        <v>1</v>
-      </c>
-      <c r="U62" s="2">
-        <v>1</v>
-      </c>
-      <c r="W62" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL62" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO62" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV62" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>0.5</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AV62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B63" s="2"/>
       <c r="C63" s="2">
         <v>0.5</v>
       </c>
-      <c r="D63" s="2"/>
       <c r="E63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
       <c r="I63" s="2">
         <v>0.5</v>
       </c>
-      <c r="J63" s="2"/>
       <c r="K63" s="2">
         <v>0.5</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
       <c r="S63" s="2">
         <v>1</v>
       </c>
-      <c r="T63" s="2"/>
       <c r="U63" s="2">
         <v>1</v>
       </c>
-      <c r="V63" s="2"/>
       <c r="W63" s="2">
         <v>1</v>
       </c>
@@ -4218,1243 +4203,1189 @@
       <c r="Z63" s="2">
         <v>0.5</v>
       </c>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="2"/>
-      <c r="AI63" s="2"/>
-      <c r="AJ63" s="2"/>
-      <c r="AK63" s="2"/>
       <c r="AL63" s="2">
         <v>1</v>
       </c>
-      <c r="AM63" s="2"/>
-      <c r="AN63" s="2"/>
       <c r="AO63" s="2">
         <v>1</v>
       </c>
-      <c r="AP63" s="2"/>
-      <c r="AQ63" s="2"/>
-      <c r="AR63" s="2"/>
-      <c r="AS63" s="2"/>
-      <c r="AT63" s="2"/>
-      <c r="AU63" s="2"/>
       <c r="AV63" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0.5</v>
+      </c>
+      <c r="U64">
+        <v>0.5</v>
+      </c>
+      <c r="V64">
+        <v>0.5</v>
+      </c>
+      <c r="Y64">
+        <v>0.5</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
+        <v>0.5</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AT64">
+        <v>0.5</v>
+      </c>
+      <c r="AV64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z65" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL65" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0.5</v>
+      </c>
+      <c r="U65">
+        <v>0.5</v>
+      </c>
+      <c r="V65">
+        <v>0.5</v>
+      </c>
+      <c r="X65">
+        <v>0.5</v>
+      </c>
+      <c r="Y65">
+        <v>0.5</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
+        <v>0.5</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AT65">
+        <v>0.5</v>
+      </c>
+      <c r="AV65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="P66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V66" s="2">
-        <v>1</v>
-      </c>
-      <c r="X66" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V66" s="1">
+        <v>1</v>
+      </c>
+      <c r="X66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="P67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V67" s="2">
-        <v>1</v>
-      </c>
-      <c r="X67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL67" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM67" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO67" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>0.5</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0.5</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <v>0.5</v>
+      </c>
+      <c r="R67">
+        <v>0.5</v>
+      </c>
+      <c r="S67">
+        <v>0.5</v>
+      </c>
+      <c r="U67">
+        <v>0.5</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>0.5</v>
+      </c>
+      <c r="Y67">
+        <v>0.5</v>
+      </c>
+      <c r="Z67">
+        <v>0.5</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P68" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R68" s="2">
-        <v>1</v>
-      </c>
-      <c r="S68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U68" s="2">
-        <v>1</v>
-      </c>
-      <c r="V68" s="2">
-        <v>1</v>
-      </c>
-      <c r="X68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AM68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT68" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0.5</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0.5</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>0.5</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>0.5</v>
+      </c>
+      <c r="Y68">
+        <v>0.5</v>
+      </c>
+      <c r="AL68">
+        <v>0.5</v>
+      </c>
+      <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AT68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>116</v>
       </c>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R69" s="2">
-        <v>1</v>
-      </c>
-      <c r="S69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U69" s="2">
-        <v>1</v>
-      </c>
-      <c r="V69" s="2">
-        <v>1</v>
-      </c>
-      <c r="W69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AM69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO69" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0.5</v>
+      </c>
+      <c r="K69">
+        <v>0.5</v>
+      </c>
+      <c r="P69">
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>0.5</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>0.5</v>
+      </c>
+      <c r="X69">
+        <v>0.5</v>
+      </c>
+      <c r="Y69">
+        <v>0.5</v>
+      </c>
+      <c r="AL69">
+        <v>0.5</v>
+      </c>
+      <c r="AM69">
+        <v>0.5</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AT69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S70" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U70" s="2">
-        <v>1</v>
-      </c>
-      <c r="V70" s="2">
-        <v>1</v>
-      </c>
-      <c r="W70" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X70" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL70" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AO70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0.5</v>
+      </c>
+      <c r="R70">
+        <v>0.5</v>
+      </c>
+      <c r="S70">
+        <v>0.5</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>0.5</v>
+      </c>
+      <c r="X70">
+        <v>0.5</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>0.5</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="S71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="W71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y71" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AC71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT71" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>0.5</v>
+      </c>
+      <c r="U71">
+        <v>0.5</v>
+      </c>
+      <c r="V71">
+        <v>0.5</v>
+      </c>
+      <c r="W71">
+        <v>0.5</v>
+      </c>
+      <c r="X71">
+        <v>0.5</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>0.5</v>
+      </c>
+      <c r="AC71">
+        <v>0.5</v>
+      </c>
+      <c r="AJ71">
+        <v>0.5</v>
+      </c>
+      <c r="AK71">
+        <v>0.5</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <v>0.5</v>
+      </c>
+      <c r="AV71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="S72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y72" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AC72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT72" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="C72">
+        <v>0.5</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>0.5</v>
+      </c>
+      <c r="U72">
+        <v>0.5</v>
+      </c>
+      <c r="V72">
+        <v>0.5</v>
+      </c>
+      <c r="X72">
+        <v>0.5</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>0.5</v>
+      </c>
+      <c r="AC72">
+        <v>0.5</v>
+      </c>
+      <c r="AJ72">
+        <v>0.5</v>
+      </c>
+      <c r="AK72">
+        <v>0.5</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>0.5</v>
+      </c>
+      <c r="AV72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>118</v>
       </c>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="P73" s="2">
-        <v>1</v>
-      </c>
-      <c r="S73" s="2">
-        <v>1</v>
-      </c>
-      <c r="V73" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X73" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z73" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AC73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL73" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT73" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>0.5</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>0.5</v>
+      </c>
+      <c r="Z73">
+        <v>0.5</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>0.5</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K74" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="V74" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X74" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AC74" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO74" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT74" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="H74">
+        <v>0.5</v>
+      </c>
+      <c r="K74">
+        <v>0.5</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>0.5</v>
+      </c>
+      <c r="X74">
+        <v>0.5</v>
+      </c>
+      <c r="Y74">
+        <v>0.5</v>
+      </c>
+      <c r="AC74">
+        <v>0.5</v>
+      </c>
+      <c r="AG74">
+        <v>1</v>
+      </c>
+      <c r="AH74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
-      <c r="AM75" s="2"/>
-      <c r="AN75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AP75" s="2"/>
-      <c r="AQ75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AR75" s="2"/>
-      <c r="AS75" s="2"/>
-      <c r="AT75" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AU75" s="2"/>
-      <c r="AV75" s="2"/>
-      <c r="AW75" s="2"/>
-    </row>
-    <row r="76" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="H75">
+        <v>0.5</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>0.5</v>
+      </c>
+      <c r="X75">
+        <v>0.5</v>
+      </c>
+      <c r="Y75">
+        <v>0.5</v>
+      </c>
+      <c r="AC75">
+        <v>0.5</v>
+      </c>
+      <c r="AG75">
+        <v>1</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>0.5</v>
+      </c>
+      <c r="AQ75">
+        <v>0.5</v>
+      </c>
+      <c r="AT75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>121</v>
       </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="P76" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S76" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V76" s="2">
-        <v>1</v>
-      </c>
-      <c r="X76" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z76" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC76" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG76" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK76" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN76" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO76" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT76" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV76" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>0.5</v>
+      </c>
+      <c r="S76">
+        <v>0.5</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>0.5</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>0.5</v>
+      </c>
+      <c r="AG76">
+        <v>0.5</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+      <c r="AV76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="P77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V77" s="2">
-        <v>1</v>
-      </c>
-      <c r="X77" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG77" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV77" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0.5</v>
+      </c>
+      <c r="P77">
+        <v>0.5</v>
+      </c>
+      <c r="S77">
+        <v>0.5</v>
+      </c>
+      <c r="U77">
+        <v>0.5</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>0.5</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>0.5</v>
+      </c>
+      <c r="AG77">
+        <v>0.5</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AT77">
+        <v>1</v>
+      </c>
+      <c r="AV77">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="2">
-        <v>1</v>
-      </c>
-      <c r="E78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-      <c r="P78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V78" s="2">
-        <v>1</v>
-      </c>
-      <c r="X78" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z78" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK78" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN78" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO78" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT78" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV78" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0.5</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>0.5</v>
+      </c>
+      <c r="S78">
+        <v>0.5</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>0.5</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <v>0.5</v>
+      </c>
+      <c r="AG78">
+        <v>0.5</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>0.5</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+      <c r="AV78">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-      <c r="S79" s="2">
-        <v>1</v>
-      </c>
-      <c r="U79" s="2">
-        <v>1</v>
-      </c>
-      <c r="W79" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X79" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y79" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC79" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG79" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL79" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO79" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ79" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="C79">
+        <v>0.5</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>0.5</v>
+      </c>
+      <c r="X79">
+        <v>0.5</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>0.5</v>
+      </c>
+      <c r="AG79">
+        <v>0.5</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
-      <c r="I80" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-      <c r="S80" s="2">
-        <v>1</v>
-      </c>
-      <c r="U80" s="2">
-        <v>1</v>
-      </c>
-      <c r="W80" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X80" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG80" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ80" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0.5</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>0.5</v>
+      </c>
+      <c r="X80">
+        <v>0.5</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>0.5</v>
+      </c>
+      <c r="AG80">
+        <v>0.5</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E81" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K81" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L81" s="2">
-        <v>1</v>
-      </c>
-      <c r="S81" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X81" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y81" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AC81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ81" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="B81">
+        <v>0.5</v>
+      </c>
+      <c r="E81">
+        <v>0.5</v>
+      </c>
+      <c r="K81">
+        <v>0.5</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>0.5</v>
+      </c>
+      <c r="X81">
+        <v>0.5</v>
+      </c>
+      <c r="Y81">
+        <v>0.5</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AQ81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E82" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-      <c r="L82" s="2">
-        <v>1</v>
-      </c>
-      <c r="S82" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y82" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AC82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO82" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B82">
+        <v>0.5</v>
+      </c>
+      <c r="E82">
+        <v>0.5</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>0.5</v>
+      </c>
+      <c r="AC82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>0.5</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
-        <v>1</v>
-      </c>
-      <c r="S83" s="2">
-        <v>1</v>
-      </c>
-      <c r="U83" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V83" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X83" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y83" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK83" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL83" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ83" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT83" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV83" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>0.5</v>
+      </c>
+      <c r="V83">
+        <v>0.5</v>
+      </c>
+      <c r="X83">
+        <v>0.5</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AK83">
+        <v>0.5</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AT83">
+        <v>0.5</v>
+      </c>
+      <c r="AV83">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>129</v>
       </c>
-      <c r="E84" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1</v>
-      </c>
-      <c r="L84" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S84" s="2">
-        <v>1</v>
-      </c>
-      <c r="X84" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y84" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z84" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL84" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="E84">
+        <v>0.5</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>0.5</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>0.5</v>
+      </c>
+      <c r="Z84">
+        <v>0.5</v>
+      </c>
+      <c r="AL84">
+        <v>0.5</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-      <c r="I85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2">
-        <v>1</v>
-      </c>
-      <c r="S85" s="2">
-        <v>1</v>
-      </c>
-      <c r="U85" s="2">
-        <v>1</v>
-      </c>
-      <c r="W85" s="2">
-        <v>1</v>
-      </c>
-      <c r="X85" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y85" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO85" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ85" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="C85">
+        <v>0.5</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>0.5</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+      <c r="AC85">
+        <v>0.5</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>0.5</v>
+      </c>
+      <c r="AQ85">
+        <v>0.5</v>
+      </c>
+      <c r="AV85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>131</v>
       </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-      <c r="I86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2">
-        <v>1</v>
-      </c>
-      <c r="L86" s="2">
-        <v>1</v>
-      </c>
-      <c r="S86" s="2">
-        <v>1</v>
-      </c>
-      <c r="U86" s="2">
-        <v>1</v>
-      </c>
-      <c r="V86" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="W86" s="2">
-        <v>1</v>
-      </c>
-      <c r="X86" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y86" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z86" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC86" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG86" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH86" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ86" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK86" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL86" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO86" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ86" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT86" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>0.5</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>1</v>
+      </c>
+      <c r="AC86">
+        <v>0.5</v>
+      </c>
+      <c r="AG86">
+        <v>1</v>
+      </c>
+      <c r="AH86">
+        <v>0.5</v>
+      </c>
+      <c r="AJ86">
+        <v>1</v>
+      </c>
+      <c r="AK86">
+        <v>0.5</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>0.5</v>
+      </c>
+      <c r="AQ86">
+        <v>0.5</v>
+      </c>
+      <c r="AT86">
+        <v>0.5</v>
+      </c>
+      <c r="AV86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>133</v>
       </c>
-      <c r="E87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2">
-        <v>1</v>
-      </c>
-      <c r="L87" s="2">
-        <v>1</v>
-      </c>
-      <c r="S87" s="2">
-        <v>1</v>
-      </c>
-      <c r="U87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="V87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="W87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X87" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z87" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AG87" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL87" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AQ87" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT87" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV87" s="2">
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>0.5</v>
+      </c>
+      <c r="V87">
+        <v>0.5</v>
+      </c>
+      <c r="W87">
+        <v>0.5</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AC87">
+        <v>0.5</v>
+      </c>
+      <c r="AG87">
+        <v>1</v>
+      </c>
+      <c r="AH87">
+        <v>0.5</v>
+      </c>
+      <c r="AJ87">
+        <v>0.5</v>
+      </c>
+      <c r="AK87">
+        <v>0.5</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>0.5</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AT87">
+        <v>0.5</v>
+      </c>
+      <c r="AV87">
         <v>1</v>
       </c>
     </row>

--- a/skills_wages.xlsx
+++ b/skills_wages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Documents\GitHub\football_manager_2024_squad_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A49CF2-00D8-402A-A5B1-3B7C80272C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA55A1C-92B1-40DC-AF75-B1C33C1507E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{C4DD148C-4F4D-48E6-8040-5C282EE47396}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -454,18 +454,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -480,9 +474,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -820,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AF988-F02D-45A6-88B0-1FE081CE3F9E}">
   <dimension ref="A1:AV87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1354,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1410,7 +1403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1472,7 +1465,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1510,7 +1503,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -1542,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1577,7 +1570,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1621,7 +1614,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1703,7 +1696,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -1759,7 +1752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1812,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1865,7 +1858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1927,7 +1920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -1998,7 +1991,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2069,7 +2062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2110,7 +2103,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2157,7 +2150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2213,7 +2206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2275,7 +2268,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2337,7 +2330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -2402,7 +2395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -2437,7 +2430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2499,7 +2492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2561,7 +2554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2614,7 +2607,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2670,7 +2663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2741,7 +2734,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2803,7 +2796,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2850,7 +2843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2897,7 +2890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2929,7 +2922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -2973,7 +2966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3020,7 +3013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -3073,7 +3066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3111,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3149,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3208,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3267,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3326,7 +3319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -3370,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -3417,7 +3410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3508,7 +3501,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3555,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -3620,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -3667,7 +3660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -3717,7 +3710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3758,7 +3751,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -3843,7 +3836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -3887,7 +3880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -3940,7 +3933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -3987,44 +3980,44 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:48" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S59" s="2">
-        <v>1</v>
-      </c>
-      <c r="U59" s="2">
-        <v>1</v>
-      </c>
-      <c r="W59" s="2">
-        <v>1</v>
-      </c>
-      <c r="X59" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO59" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AV59" s="2">
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>0.5</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0.5</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>0.5</v>
+      </c>
+      <c r="AV59">
         <v>0.5</v>
       </c>
     </row>
@@ -4081,56 +4074,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="U61" s="2">
-        <v>1</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="W61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="X61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AJ61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AK61" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL61" s="2">
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0.5</v>
+      </c>
+      <c r="S61">
+        <v>0.5</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0.5</v>
+      </c>
+      <c r="W61">
+        <v>0.5</v>
+      </c>
+      <c r="X61">
+        <v>0.5</v>
+      </c>
+      <c r="Y61">
+        <v>0.5</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AC61">
+        <v>0.5</v>
+      </c>
+      <c r="AJ61">
+        <v>0.5</v>
+      </c>
+      <c r="AK61">
+        <v>0.5</v>
+      </c>
+      <c r="AL61">
         <v>1</v>
       </c>
     </row>
@@ -4169,47 +4162,47 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S63" s="2">
-        <v>1</v>
-      </c>
-      <c r="U63" s="2">
-        <v>1</v>
-      </c>
-      <c r="W63" s="2">
-        <v>1</v>
-      </c>
-      <c r="X63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AL63" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO63" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV63" s="2">
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>0.5</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>0.5</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>0.5</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AV63">
         <v>0.5</v>
       </c>
     </row>
